--- a/spillacg2020afterfrom.xlsx
+++ b/spillacg2020afterfrom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0bc2f1dc68cd9768/ukrain war/ukrainn war/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_560ADFDD8F79A8D366075C52F37BD272AACCEF54" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B311CE8C-D50A-4EF3-9F6C-4F028B5FA89A}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_560ADFDD8F79A8D366075C52F37BD272AACCEF54" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5194959D-07CB-4843-A27F-B92651353B2F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6957,11 +6957,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="Q65" sqref="Q65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
